--- a/Original/CN/Game/Material.xlsx
+++ b/Original/CN/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>

--- a/Original/CN/Game/Material.xlsx
+++ b/Original/CN/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="554">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -1244,6 +1244,15 @@
     <t xml:space="preserve">愛らしい</t>
   </si>
   <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh cream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生クリーム</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1274,6 +1283,9 @@
     <t xml:space="preserve">EA 23.101</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.150 Patch 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">暗物质</t>
   </si>
   <si>
@@ -1469,7 +1481,7 @@
     <t xml:space="preserve">蓝色土</t>
   </si>
   <si>
-    <t xml:space="preserve">羊毛</t>
+    <t xml:space="preserve">毛</t>
   </si>
   <si>
     <t xml:space="preserve">蜘蛛丝</t>
@@ -1524,6 +1536,9 @@
   </si>
   <si>
     <t xml:space="preserve">蔷薇石英</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鲜奶油</t>
   </si>
   <si>
     <t xml:space="preserve">生于森林的,木制的</t>
@@ -1773,10 +1788,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1792,10 +1807,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1804,7 +1819,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1818,10 +1833,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1830,7 +1845,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1844,10 +1859,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1856,7 +1871,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1870,7 +1885,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1889,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -1901,7 +1916,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1915,10 +1930,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1934,10 +1949,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1953,10 +1968,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1965,7 +1980,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1979,10 +1994,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1991,7 +2006,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2005,10 +2020,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2017,7 +2032,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2031,10 +2046,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C14" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2050,7 +2065,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -2062,7 +2077,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2076,10 +2091,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2088,7 +2103,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2102,10 +2117,10 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2114,7 +2129,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2128,10 +2143,10 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2140,7 +2155,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2154,10 +2169,10 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2166,7 +2181,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2180,10 +2195,10 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C20" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2192,7 +2207,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2206,10 +2221,10 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C21" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2218,7 +2233,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2232,10 +2247,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2244,7 +2259,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2258,10 +2273,10 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2270,7 +2285,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2284,7 +2299,7 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
         <v>106</v>
@@ -2296,7 +2311,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2310,10 +2325,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2322,7 +2337,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2336,7 +2351,7 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
         <v>116</v>
@@ -2348,7 +2363,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2362,7 +2377,7 @@
         <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C27" t="s">
         <v>121</v>
@@ -2374,7 +2389,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2388,10 +2403,10 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C28" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2400,7 +2415,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2414,10 +2429,10 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C29" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2426,7 +2441,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2440,10 +2455,10 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2452,7 +2467,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2466,10 +2481,10 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2485,10 +2500,10 @@
         <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2497,7 +2512,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2511,10 +2526,10 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C33" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2530,10 +2545,10 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2549,10 +2564,10 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C35" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2568,10 +2583,10 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2587,7 +2602,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C37" t="s">
         <v>161</v>
@@ -2606,10 +2621,10 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C38" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2625,10 +2640,10 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C39" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2644,10 +2659,10 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C40" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2663,10 +2678,10 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C41" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2682,7 +2697,7 @@
         <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C42" t="s">
         <v>176</v>
@@ -2694,7 +2709,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2708,7 +2723,7 @@
         <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
         <v>181</v>
@@ -2720,7 +2735,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2734,10 +2749,10 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C44" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2753,10 +2768,10 @@
         <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C45" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2765,7 +2780,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2779,10 +2794,10 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C46" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2791,7 +2806,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2805,10 +2820,10 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C47" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2824,7 +2839,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C48" t="s">
         <v>202</v>
@@ -2843,10 +2858,10 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C49" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2862,10 +2877,10 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C50" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2881,7 +2896,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C51" t="s">
         <v>211</v>
@@ -2900,10 +2915,10 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C52" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -2919,7 +2934,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C53" t="s">
         <v>217</v>
@@ -2938,10 +2953,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C54" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -2957,10 +2972,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -2976,10 +2991,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C56" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -2995,10 +3010,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C57" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3014,10 +3029,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C58" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3026,7 +3041,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3040,10 +3055,10 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C59" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3059,7 +3074,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C60" t="s">
         <v>240</v>
@@ -3078,10 +3093,10 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C61" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3097,10 +3112,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C62" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3116,10 +3131,10 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C63" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3135,10 +3150,10 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C64" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3154,10 +3169,10 @@
         <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C65" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3166,7 +3181,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3180,10 +3195,10 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C66" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3199,10 +3214,10 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C67" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3218,10 +3233,10 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C68" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3237,7 +3252,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C69" t="s">
         <v>269</v>
@@ -3256,7 +3271,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C70" t="s">
         <v>272</v>
@@ -3275,10 +3290,10 @@
         <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C71" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3287,7 +3302,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3301,10 +3316,10 @@
         <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C72" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3313,7 +3328,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3327,10 +3342,10 @@
         <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C73" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3339,7 +3354,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3353,10 +3368,10 @@
         <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C74" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3365,7 +3380,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3379,10 +3394,10 @@
         <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3391,7 +3406,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3405,10 +3420,10 @@
         <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C76" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3417,7 +3432,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3431,10 +3446,10 @@
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C77" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3443,7 +3458,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3457,10 +3472,10 @@
         <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C78" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3469,7 +3484,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3483,10 +3498,10 @@
         <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C79" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3495,7 +3510,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3509,10 +3524,10 @@
         <v>318</v>
       </c>
       <c r="B80" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C80" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3521,7 +3536,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3535,10 +3550,10 @@
         <v>323</v>
       </c>
       <c r="B81" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C81" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3547,7 +3562,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3561,10 +3576,10 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C82" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3580,10 +3595,10 @@
         <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C83" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3592,7 +3607,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3606,10 +3621,10 @@
         <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C84" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3618,7 +3633,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3632,7 +3647,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C85" t="s">
         <v>343</v>
@@ -3651,10 +3666,10 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C86" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3670,10 +3685,10 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C87" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3689,10 +3704,10 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3708,10 +3723,10 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C89" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D89" t="s">
         <v>242</v>
@@ -3727,10 +3742,10 @@
         <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C90" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -3746,7 +3761,7 @@
         <v>358</v>
       </c>
       <c r="B91" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C91" t="s">
         <v>360</v>
@@ -3765,10 +3780,10 @@
         <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C92" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D92" t="s">
         <v>362</v>
@@ -3784,10 +3799,10 @@
         <v>364</v>
       </c>
       <c r="B93" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C93" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D93" t="s">
         <v>365</v>
@@ -3803,10 +3818,10 @@
         <v>367</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D94" t="s">
         <v>368</v>
@@ -3815,7 +3830,7 @@
         <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="G94" t="s">
         <v>370</v>
@@ -3829,10 +3844,10 @@
         <v>372</v>
       </c>
       <c r="B95" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C95" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D95" t="s">
         <v>373</v>
@@ -3848,10 +3863,10 @@
         <v>375</v>
       </c>
       <c r="B96" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D96" t="s">
         <v>376</v>
@@ -3867,10 +3882,10 @@
         <v>378</v>
       </c>
       <c r="B97" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C97" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D97" t="s">
         <v>379</v>
@@ -3886,7 +3901,7 @@
         <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C98" t="s">
         <v>383</v>
@@ -3905,10 +3920,10 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C99" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -3924,10 +3939,10 @@
         <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C100" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D100" t="s">
         <v>388</v>
@@ -3943,7 +3958,7 @@
         <v>390</v>
       </c>
       <c r="B101" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C101" t="s">
         <v>392</v>
@@ -3962,10 +3977,10 @@
         <v>393</v>
       </c>
       <c r="B102" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C102" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D102" t="s">
         <v>394</v>
@@ -3974,7 +3989,7 @@
         <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G102" t="s">
         <v>396</v>
@@ -3988,10 +4003,10 @@
         <v>398</v>
       </c>
       <c r="B103" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C103" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D103" t="s">
         <v>399</v>
@@ -4007,10 +4022,10 @@
         <v>401</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C104" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D104" t="s">
         <v>402</v>
@@ -4026,10 +4041,10 @@
         <v>404</v>
       </c>
       <c r="B105" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C105" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D105" t="s">
         <v>405</v>
@@ -4038,7 +4053,7 @@
         <v>406</v>
       </c>
       <c r="F105" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G105" t="s">
         <v>407</v>
@@ -4046,6 +4061,25 @@
       <c r="H105" t="s">
         <v>408</v>
       </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B106" t="s">
+        <v>422</v>
+      </c>
+      <c r="C106" t="s">
+        <v>507</v>
+      </c>
+      <c r="D106" t="s">
+        <v>410</v>
+      </c>
+      <c r="E106" t="s">
+        <v>411</v>
+      </c>
+      <c r="G106"/>
+      <c r="H106"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Material.xlsx
+++ b/Original/CN/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="555">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">水晶</t>
   </si>
   <si>
-    <t xml:space="preserve">luminescent </t>
+    <t xml:space="preserve">luminescent</t>
   </si>
   <si>
     <t xml:space="preserve">異光を放つ</t>
@@ -743,340 +743,343 @@
     <t xml:space="preserve">58</t>
   </si>
   <si>
+    <t xml:space="preserve">pale soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い色の土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahogany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マホガニー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローズウッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">氷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">藁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farmwork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">農作業用の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mystic grass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神秘的な草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淡水</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mithril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミスリル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古なる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイタニアム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色褪せぬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cotton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">綿</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lightweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">薄い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautiful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美しき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逆鱗に触れし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cashmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カシミア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">暖かなる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zylon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ザイロン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">異国からもたらされし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">霊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherworldly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この世ならざる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dawn cloth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵晒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dusk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宵闇をまといし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">griffon scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼鳥鱗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">翼を折られし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プラスチック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">透き通った</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blue soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青い土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柔らかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛糸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entangled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絡みつく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">灰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赤土</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">モミ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
     <t xml:space="preserve">light soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い色の土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mahogany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マホガニー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ローズウッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">氷</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">藁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farmwork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">農作業用の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cedar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mystic grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神秘的な草</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresh water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淡水</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mithril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ミスリル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">古なる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titanium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">タイタニアム</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">色褪せぬ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">綿</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lightweight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">薄い</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">シルク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beautiful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美しき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逆鱗に触れし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cashmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カシミア</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">暖かなる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zylon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ザイロン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">異国からもたらされし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spirit cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">霊布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherworldly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">この世ならざる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dawn cloth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵晒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dusk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宵闇をまといし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffon scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼鳥鱗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fallen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">翼を折られし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プラスチック</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">透き通った</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blue soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">青い土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ウール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柔らかい</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spider silk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">蜘蛛糸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entangled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絡みつく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">灰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red soil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赤土</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モミ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86</t>
   </si>
   <si>
     <t xml:space="preserve">明るい土</t>
@@ -1788,10 +1791,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1807,10 +1810,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -1819,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1833,10 +1836,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1845,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
@@ -1859,10 +1862,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1871,7 +1874,7 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1885,7 +1888,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1904,7 +1907,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -1916,7 +1919,7 @@
         <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -1930,10 +1933,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1949,10 +1952,10 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -1968,10 +1971,10 @@
         <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -1980,7 +1983,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G11" t="s">
         <v>44</v>
@@ -1994,10 +1997,10 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -2006,7 +2009,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -2020,10 +2023,10 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
@@ -2032,7 +2035,7 @@
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -2046,10 +2049,10 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -2065,7 +2068,7 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -2077,7 +2080,7 @@
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G15" t="s">
         <v>62</v>
@@ -2091,10 +2094,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -2103,7 +2106,7 @@
         <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -2117,10 +2120,10 @@
         <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
@@ -2129,7 +2132,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G17" t="s">
         <v>72</v>
@@ -2143,10 +2146,10 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -2155,7 +2158,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G18" t="s">
         <v>77</v>
@@ -2169,10 +2172,10 @@
         <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -2181,7 +2184,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G19" t="s">
         <v>82</v>
@@ -2195,10 +2198,10 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
         <v>85</v>
@@ -2207,7 +2210,7 @@
         <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G20" t="s">
         <v>87</v>
@@ -2221,10 +2224,10 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -2233,7 +2236,7 @@
         <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G21" t="s">
         <v>92</v>
@@ -2247,10 +2250,10 @@
         <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -2259,7 +2262,7 @@
         <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G22" t="s">
         <v>97</v>
@@ -2273,10 +2276,10 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D23" t="s">
         <v>100</v>
@@ -2285,7 +2288,7 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G23" t="s">
         <v>102</v>
@@ -2299,7 +2302,7 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C24" t="s">
         <v>106</v>
@@ -2311,7 +2314,7 @@
         <v>106</v>
       </c>
       <c r="F24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G24" t="s">
         <v>107</v>
@@ -2325,10 +2328,10 @@
         <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D25" t="s">
         <v>110</v>
@@ -2337,7 +2340,7 @@
         <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G25" t="s">
         <v>112</v>
@@ -2351,7 +2354,7 @@
         <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C26" t="s">
         <v>116</v>
@@ -2363,7 +2366,7 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G26" t="s">
         <v>117</v>
@@ -2377,7 +2380,7 @@
         <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C27" t="s">
         <v>121</v>
@@ -2389,7 +2392,7 @@
         <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G27" t="s">
         <v>122</v>
@@ -2403,10 +2406,10 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D28" t="s">
         <v>125</v>
@@ -2415,7 +2418,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
@@ -2429,10 +2432,10 @@
         <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D29" t="s">
         <v>130</v>
@@ -2441,7 +2444,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G29" t="s">
         <v>132</v>
@@ -2455,10 +2458,10 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D30" t="s">
         <v>135</v>
@@ -2467,7 +2470,7 @@
         <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G30" t="s">
         <v>137</v>
@@ -2481,10 +2484,10 @@
         <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D31" t="s">
         <v>140</v>
@@ -2500,10 +2503,10 @@
         <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D32" t="s">
         <v>143</v>
@@ -2512,7 +2515,7 @@
         <v>144</v>
       </c>
       <c r="F32" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -2526,10 +2529,10 @@
         <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D33" t="s">
         <v>148</v>
@@ -2545,10 +2548,10 @@
         <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D34" t="s">
         <v>151</v>
@@ -2564,10 +2567,10 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -2583,10 +2586,10 @@
         <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C36" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D36" t="s">
         <v>157</v>
@@ -2602,7 +2605,7 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C37" t="s">
         <v>161</v>
@@ -2621,10 +2624,10 @@
         <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C38" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D38" t="s">
         <v>163</v>
@@ -2640,10 +2643,10 @@
         <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -2659,10 +2662,10 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C40" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D40" t="s">
         <v>169</v>
@@ -2678,10 +2681,10 @@
         <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C41" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D41" t="s">
         <v>172</v>
@@ -2697,7 +2700,7 @@
         <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C42" t="s">
         <v>176</v>
@@ -2709,7 +2712,7 @@
         <v>176</v>
       </c>
       <c r="F42" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G42" t="s">
         <v>177</v>
@@ -2723,7 +2726,7 @@
         <v>179</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C43" t="s">
         <v>181</v>
@@ -2735,7 +2738,7 @@
         <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -2749,10 +2752,10 @@
         <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D44" t="s">
         <v>185</v>
@@ -2768,10 +2771,10 @@
         <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D45" t="s">
         <v>188</v>
@@ -2780,7 +2783,7 @@
         <v>189</v>
       </c>
       <c r="F45" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G45" t="s">
         <v>190</v>
@@ -2794,10 +2797,10 @@
         <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D46" t="s">
         <v>193</v>
@@ -2806,7 +2809,7 @@
         <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G46" t="s">
         <v>195</v>
@@ -2820,10 +2823,10 @@
         <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D47" t="s">
         <v>198</v>
@@ -2839,7 +2842,7 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C48" t="s">
         <v>202</v>
@@ -2858,10 +2861,10 @@
         <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C49" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D49" t="s">
         <v>204</v>
@@ -2877,10 +2880,10 @@
         <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -2896,7 +2899,7 @@
         <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C51" t="s">
         <v>211</v>
@@ -2915,10 +2918,10 @@
         <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D52" t="s">
         <v>213</v>
@@ -2934,7 +2937,7 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C53" t="s">
         <v>217</v>
@@ -2953,10 +2956,10 @@
         <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -2972,10 +2975,10 @@
         <v>221</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C55" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D55" t="s">
         <v>222</v>
@@ -2991,10 +2994,10 @@
         <v>224</v>
       </c>
       <c r="B56" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C56" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D56" t="s">
         <v>225</v>
@@ -3010,10 +3013,10 @@
         <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C57" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D57" t="s">
         <v>228</v>
@@ -3029,10 +3032,10 @@
         <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C58" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3041,7 +3044,7 @@
         <v>232</v>
       </c>
       <c r="F58" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G58" t="s">
         <v>233</v>
@@ -3055,10 +3058,10 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C59" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D59" t="s">
         <v>236</v>
@@ -3074,7 +3077,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C60" t="s">
         <v>240</v>
@@ -3093,10 +3096,10 @@
         <v>241</v>
       </c>
       <c r="B61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D61" t="s">
         <v>242</v>
@@ -3112,10 +3115,10 @@
         <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D62" t="s">
         <v>245</v>
@@ -3131,10 +3134,10 @@
         <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C63" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D63" t="s">
         <v>248</v>
@@ -3150,10 +3153,10 @@
         <v>250</v>
       </c>
       <c r="B64" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C64" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D64" t="s">
         <v>251</v>
@@ -3169,10 +3172,10 @@
         <v>253</v>
       </c>
       <c r="B65" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C65" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D65" t="s">
         <v>254</v>
@@ -3181,7 +3184,7 @@
         <v>255</v>
       </c>
       <c r="F65" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G65" t="s">
         <v>256</v>
@@ -3195,10 +3198,10 @@
         <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C66" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D66" t="s">
         <v>259</v>
@@ -3214,10 +3217,10 @@
         <v>261</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C67" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D67" t="s">
         <v>262</v>
@@ -3233,10 +3236,10 @@
         <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C68" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D68" t="s">
         <v>265</v>
@@ -3252,7 +3255,7 @@
         <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C69" t="s">
         <v>269</v>
@@ -3271,7 +3274,7 @@
         <v>270</v>
       </c>
       <c r="B70" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C70" t="s">
         <v>272</v>
@@ -3290,10 +3293,10 @@
         <v>273</v>
       </c>
       <c r="B71" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D71" t="s">
         <v>274</v>
@@ -3302,7 +3305,7 @@
         <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G71" t="s">
         <v>276</v>
@@ -3316,10 +3319,10 @@
         <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C72" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
         <v>279</v>
@@ -3328,7 +3331,7 @@
         <v>280</v>
       </c>
       <c r="F72" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G72" t="s">
         <v>281</v>
@@ -3342,10 +3345,10 @@
         <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C73" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
         <v>284</v>
@@ -3354,7 +3357,7 @@
         <v>285</v>
       </c>
       <c r="F73" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G73" t="s">
         <v>286</v>
@@ -3368,10 +3371,10 @@
         <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C74" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s">
         <v>289</v>
@@ -3380,7 +3383,7 @@
         <v>290</v>
       </c>
       <c r="F74" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G74" t="s">
         <v>291</v>
@@ -3394,10 +3397,10 @@
         <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C75" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D75" t="s">
         <v>294</v>
@@ -3406,7 +3409,7 @@
         <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G75" t="s">
         <v>296</v>
@@ -3420,10 +3423,10 @@
         <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C76" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D76" t="s">
         <v>299</v>
@@ -3432,7 +3435,7 @@
         <v>300</v>
       </c>
       <c r="F76" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G76" t="s">
         <v>301</v>
@@ -3446,10 +3449,10 @@
         <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C77" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D77" t="s">
         <v>304</v>
@@ -3458,7 +3461,7 @@
         <v>305</v>
       </c>
       <c r="F77" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G77" t="s">
         <v>306</v>
@@ -3472,10 +3475,10 @@
         <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C78" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D78" t="s">
         <v>309</v>
@@ -3484,7 +3487,7 @@
         <v>310</v>
       </c>
       <c r="F78" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G78" t="s">
         <v>311</v>
@@ -3498,10 +3501,10 @@
         <v>313</v>
       </c>
       <c r="B79" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C79" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D79" t="s">
         <v>314</v>
@@ -3510,7 +3513,7 @@
         <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G79" t="s">
         <v>316</v>
@@ -3524,10 +3527,10 @@
         <v>318</v>
       </c>
       <c r="B80" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C80" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D80" t="s">
         <v>319</v>
@@ -3536,7 +3539,7 @@
         <v>320</v>
       </c>
       <c r="F80" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G80" t="s">
         <v>321</v>
@@ -3550,10 +3553,10 @@
         <v>323</v>
       </c>
       <c r="B81" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C81" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D81" t="s">
         <v>324</v>
@@ -3562,7 +3565,7 @@
         <v>325</v>
       </c>
       <c r="F81" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G81" t="s">
         <v>326</v>
@@ -3576,10 +3579,10 @@
         <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C82" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D82" t="s">
         <v>329</v>
@@ -3595,10 +3598,10 @@
         <v>331</v>
       </c>
       <c r="B83" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C83" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D83" t="s">
         <v>332</v>
@@ -3607,7 +3610,7 @@
         <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G83" t="s">
         <v>334</v>
@@ -3621,10 +3624,10 @@
         <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C84" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D84" t="s">
         <v>337</v>
@@ -3633,7 +3636,7 @@
         <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G84" t="s">
         <v>339</v>
@@ -3647,7 +3650,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C85" t="s">
         <v>343</v>
@@ -3666,10 +3669,10 @@
         <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C86" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D86" t="s">
         <v>345</v>
@@ -3685,10 +3688,10 @@
         <v>347</v>
       </c>
       <c r="B87" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C87" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D87" t="s">
         <v>348</v>
@@ -3704,10 +3707,10 @@
         <v>350</v>
       </c>
       <c r="B88" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C88" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D88" t="s">
         <v>351</v>
@@ -3723,360 +3726,360 @@
         <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C89" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D89" t="s">
-        <v>242</v>
+        <v>354</v>
       </c>
       <c r="E89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C91" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" t="s">
         <v>360</v>
       </c>
-      <c r="D91" t="s">
-        <v>359</v>
-      </c>
       <c r="E91" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B92" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C92" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D92" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E92" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B93" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C93" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D93" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B94" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C94" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F94" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B95" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C95" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B96" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C96" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C97" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B98" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C98" t="s">
+        <v>384</v>
+      </c>
+      <c r="D98" t="s">
         <v>383</v>
       </c>
-      <c r="D98" t="s">
-        <v>382</v>
-      </c>
       <c r="E98" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B99" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D99" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E99" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C100" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D100" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E100" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B101" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C101" t="s">
+        <v>393</v>
+      </c>
+      <c r="D101" t="s">
         <v>392</v>
       </c>
-      <c r="D101" t="s">
-        <v>391</v>
-      </c>
       <c r="E101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B102" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C102" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E102" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F102" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G102" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H102" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B103" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C103" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D103" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E103" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B104" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C104" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D104" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E104" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B105" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C105" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D105" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E105" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F105" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G105" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H105" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B106" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C106" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D106" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E106" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>

--- a/Original/CN/Game/Material.xlsx
+++ b/Original/CN/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="619">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -53,6 +53,12 @@
     <t xml:space="preserve">ダークマター</t>
   </si>
   <si>
+    <t xml:space="preserve">distortive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">存在を歪ませる</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -1256,6 +1262,135 @@
     <t xml:space="preserve">生クリーム</t>
   </si>
   <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">琥珀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マグマ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">血</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true obsidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真なる黒曜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antinomic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">摂理を断つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elder gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エルダーゴールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shimmering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">緋色に煌めく </t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orichalcum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オリハルコン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unbreakable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砕けることなき</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深淵鋼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abyssal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深淵を映す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">netherite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネザライト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purgatorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煉獄で鍛えられし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eternal sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infinite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無限の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfading iron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろわざる鉄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">うつろわざる</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1289,6 +1424,18 @@
     <t xml:space="preserve">EA 23.150 Patch 1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.245</t>
+  </si>
+  <si>
     <t xml:space="preserve">暗物质</t>
   </si>
   <si>
@@ -1544,6 +1691,33 @@
     <t xml:space="preserve">鲜奶油</t>
   </si>
   <si>
+    <t xml:space="preserve">岩浆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真黑曜石</t>
+  </si>
+  <si>
+    <t xml:space="preserve">远古金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山铜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深渊钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下界合金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永恒砂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不朽铁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扭曲存在的</t>
+  </si>
+  <si>
     <t xml:space="preserve">生于森林的,木制的</t>
   </si>
   <si>
@@ -1680,6 +1854,24 @@
   </si>
   <si>
     <t xml:space="preserve">惹人怜爱的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斩断天理的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绯红闪耀的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">坚不可摧的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">映出深渊的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炼狱锻造的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无限的</t>
   </si>
 </sst>
 </file>
@@ -1791,10 +1983,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1802,2287 +1994,2533 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="F3" t="s">
+        <v>566</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C6" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C12" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C16" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="G21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="C22" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C25" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="G25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C28" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="D29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s">
-        <v>531</v>
+        <v>589</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C33" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C38" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C39" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="D39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C40" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C41" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F43" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="G43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C45" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="D45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C46" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F46" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="G46" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C47" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="D47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C50" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B52" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C52" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C54" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="D54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C55" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C56" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C57" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="D57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C58" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="G58" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H58" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C59" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B60" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C61" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C62" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C63" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C64" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="D64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E64" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C65" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="D65" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E65" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="G65" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H65" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C66" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C67" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C68" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="D68" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E68" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C70" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B71" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C71" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="D71" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F71" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
       <c r="G71" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B72" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C72" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="D72" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F72" t="s">
-        <v>540</v>
+        <v>598</v>
       </c>
       <c r="G72" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H72" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B73" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C73" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="D73" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F73" t="s">
-        <v>541</v>
+        <v>599</v>
       </c>
       <c r="G73" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H73" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C74" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E74" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F74" t="s">
-        <v>542</v>
+        <v>600</v>
       </c>
       <c r="G74" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B75" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C75" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="D75" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F75" t="s">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="G75" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H75" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C76" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F76" t="s">
-        <v>544</v>
+        <v>602</v>
       </c>
       <c r="G76" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H76" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B77" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C77" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F77" t="s">
-        <v>545</v>
+        <v>603</v>
       </c>
       <c r="G77" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H77" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B78" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C78" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="D78" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E78" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F78" t="s">
-        <v>546</v>
+        <v>604</v>
       </c>
       <c r="G78" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H78" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B79" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C79" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="D79" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E79" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F79" t="s">
-        <v>547</v>
+        <v>605</v>
       </c>
       <c r="G79" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H79" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B80" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C80" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E80" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F80" t="s">
-        <v>548</v>
+        <v>606</v>
       </c>
       <c r="G80" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H80" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B81" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C81" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="D81" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E81" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F81" t="s">
-        <v>549</v>
+        <v>607</v>
       </c>
       <c r="G81" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H81" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B82" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C82" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="D82" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E82" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B83" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C83" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="D83" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E83" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F83" t="s">
-        <v>550</v>
+        <v>608</v>
       </c>
       <c r="G83" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H83" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C84" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="D84" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E84" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F84" t="s">
-        <v>551</v>
+        <v>609</v>
       </c>
       <c r="G84" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H84" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C85" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D85" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E85" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B86" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C86" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E86" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B87" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C87" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="D87" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E87" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="C88" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="D88" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E88" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C89" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="D89" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E89" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B90" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C90" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="D90" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E90" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B91" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="C91" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D91" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E91" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="C92" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="D92" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E92" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B93" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C93" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="D93" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E93" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B94" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C94" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="D94" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E94" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F94" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="G94" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H94" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B95" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C95" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="D95" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E95" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B96" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C96" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="D96" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E96" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B97" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C97" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="D97" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E97" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C98" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D98" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E98" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B99" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="C99" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="D99" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E99" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="C100" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="D100" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E100" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B101" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="C101" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D101" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E101" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B102" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="C102" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="D102" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E102" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F102" t="s">
-        <v>553</v>
+        <v>611</v>
       </c>
       <c r="G102" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H102" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B103" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="C103" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="D103" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E103" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B104" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="C104" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="D104" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E104" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B105" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="C105" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="D105" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E105" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F105" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="G105" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H105" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B106" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="C106" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="D106" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E106" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>415</v>
+      </c>
+      <c r="B107" t="s">
+        <v>469</v>
+      </c>
+      <c r="C107" t="s">
+        <v>417</v>
+      </c>
+      <c r="D107" t="s">
+        <v>416</v>
+      </c>
+      <c r="E107" t="s">
+        <v>417</v>
+      </c>
+      <c r="G107"/>
+      <c r="H107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" t="s">
+        <v>470</v>
+      </c>
+      <c r="C108" t="s">
+        <v>558</v>
+      </c>
+      <c r="D108" t="s">
+        <v>419</v>
+      </c>
+      <c r="E108" t="s">
+        <v>420</v>
+      </c>
+      <c r="G108"/>
+      <c r="H108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>421</v>
+      </c>
+      <c r="B109" t="s">
+        <v>471</v>
+      </c>
+      <c r="C109" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" t="s">
+        <v>422</v>
+      </c>
+      <c r="E109" t="s">
+        <v>423</v>
+      </c>
+      <c r="G109"/>
+      <c r="H109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>424</v>
+      </c>
+      <c r="B110" t="s">
+        <v>472</v>
+      </c>
+      <c r="C110" t="s">
+        <v>559</v>
+      </c>
+      <c r="D110" t="s">
+        <v>425</v>
+      </c>
+      <c r="E110" t="s">
+        <v>426</v>
+      </c>
+      <c r="F110" t="s">
+        <v>613</v>
+      </c>
+      <c r="G110" t="s">
+        <v>427</v>
+      </c>
+      <c r="H110" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" t="s">
+        <v>472</v>
+      </c>
+      <c r="C111" t="s">
+        <v>560</v>
+      </c>
+      <c r="D111" t="s">
+        <v>430</v>
+      </c>
+      <c r="E111" t="s">
+        <v>431</v>
+      </c>
+      <c r="F111" t="s">
+        <v>614</v>
+      </c>
+      <c r="G111" t="s">
+        <v>432</v>
+      </c>
+      <c r="H111" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>434</v>
+      </c>
+      <c r="B112" t="s">
+        <v>472</v>
+      </c>
+      <c r="C112" t="s">
+        <v>561</v>
+      </c>
+      <c r="D112" t="s">
+        <v>435</v>
+      </c>
+      <c r="E112" t="s">
+        <v>436</v>
+      </c>
+      <c r="F112" t="s">
+        <v>615</v>
+      </c>
+      <c r="G112" t="s">
+        <v>437</v>
+      </c>
+      <c r="H112" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>439</v>
+      </c>
+      <c r="B113" t="s">
+        <v>472</v>
+      </c>
+      <c r="C113" t="s">
+        <v>562</v>
+      </c>
+      <c r="D113" t="s">
+        <v>440</v>
+      </c>
+      <c r="E113" t="s">
+        <v>441</v>
+      </c>
+      <c r="F113" t="s">
+        <v>616</v>
+      </c>
+      <c r="G113" t="s">
+        <v>442</v>
+      </c>
+      <c r="H113" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>444</v>
+      </c>
+      <c r="B114" t="s">
+        <v>472</v>
+      </c>
+      <c r="C114" t="s">
+        <v>563</v>
+      </c>
+      <c r="D114" t="s">
+        <v>445</v>
+      </c>
+      <c r="E114" t="s">
+        <v>446</v>
+      </c>
+      <c r="F114" t="s">
+        <v>617</v>
+      </c>
+      <c r="G114" t="s">
+        <v>447</v>
+      </c>
+      <c r="H114" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>449</v>
+      </c>
+      <c r="B115" t="s">
+        <v>472</v>
+      </c>
+      <c r="C115" t="s">
+        <v>564</v>
+      </c>
+      <c r="D115" t="s">
+        <v>450</v>
+      </c>
+      <c r="E115" t="s">
+        <v>451</v>
+      </c>
+      <c r="F115" t="s">
+        <v>618</v>
+      </c>
+      <c r="G115" t="s">
+        <v>452</v>
+      </c>
+      <c r="H115" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>454</v>
+      </c>
+      <c r="B116" t="s">
+        <v>472</v>
+      </c>
+      <c r="C116" t="s">
+        <v>565</v>
+      </c>
+      <c r="D116" t="s">
+        <v>455</v>
+      </c>
+      <c r="E116" t="s">
+        <v>456</v>
+      </c>
+      <c r="F116" t="s">
+        <v>592</v>
+      </c>
+      <c r="G116" t="s">
+        <v>283</v>
+      </c>
+      <c r="H116" t="s">
+        <v>457</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Original/CN/Game/Material.xlsx
+++ b/Original/CN/Game/Material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="555">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
@@ -53,12 +53,6 @@
     <t xml:space="preserve">ダークマター</t>
   </si>
   <si>
-    <t xml:space="preserve">distortive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">存在を歪ませる</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -1262,135 +1256,6 @@
     <t xml:space="preserve">生クリーム</t>
   </si>
   <si>
-    <t xml:space="preserve">104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">琥珀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">マグマ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">血</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true obsidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真なる黒曜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antinomic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">摂理を断つ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elder gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エルダーゴールド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shimmering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">緋色に煌めく </t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orichalcum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">オリハルコン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unbreakable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">砕けることなき</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deep steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深淵鋼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abyssal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深淵を映す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">netherite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ネザライト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purgatorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">煉獄で鍛えられし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eternal sand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">infinite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無限の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unfading iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろわざる鉄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろわざる</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -1424,18 +1289,6 @@
     <t xml:space="preserve">EA 23.150 Patch 1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.245</t>
-  </si>
-  <si>
     <t xml:space="preserve">暗物质</t>
   </si>
   <si>
@@ -1691,33 +1544,6 @@
     <t xml:space="preserve">鲜奶油</t>
   </si>
   <si>
-    <t xml:space="preserve">岩浆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真黑曜石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">远古金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山铜</t>
-  </si>
-  <si>
-    <t xml:space="preserve">深渊钢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下界合金</t>
-  </si>
-  <si>
-    <t xml:space="preserve">永恒砂</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不朽铁</t>
-  </si>
-  <si>
-    <t xml:space="preserve">扭曲存在的</t>
-  </si>
-  <si>
     <t xml:space="preserve">生于森林的,木制的</t>
   </si>
   <si>
@@ -1854,24 +1680,6 @@
   </si>
   <si>
     <t xml:space="preserve">惹人怜爱的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">斩断天理的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">绯红闪耀的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">坚不可摧的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">映出深渊的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">炼狱锻造的</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无限的</t>
   </si>
 </sst>
 </file>
@@ -1983,10 +1791,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>473</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1994,2533 +1802,2287 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>566</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>567</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C5" t="s">
-        <v>475</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>510</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>568</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C6" t="s">
-        <v>476</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>511</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>569</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>512</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>570</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C10" t="s">
-        <v>478</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C11" t="s">
-        <v>479</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>571</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C12" t="s">
-        <v>480</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G12" t="s">
         <v>49</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>572</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
-        <v>458</v>
-      </c>
-      <c r="C13" t="s">
-        <v>481</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>515</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>573</v>
-      </c>
-      <c r="G13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>459</v>
-      </c>
-      <c r="C14" t="s">
-        <v>482</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
-        <v>458</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>516</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>574</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
-        <v>458</v>
-      </c>
-      <c r="C16" t="s">
-        <v>483</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>575</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" t="s">
+        <v>435</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
-        <v>458</v>
-      </c>
-      <c r="C17" t="s">
-        <v>484</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>518</v>
+      </c>
+      <c r="G17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" t="s">
-        <v>576</v>
-      </c>
-      <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
-        <v>458</v>
-      </c>
-      <c r="C18" t="s">
-        <v>485</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>519</v>
+      </c>
+      <c r="G18" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>577</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" t="s">
-        <v>458</v>
-      </c>
-      <c r="C19" t="s">
-        <v>486</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>520</v>
+      </c>
+      <c r="G19" t="s">
         <v>82</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>83</v>
-      </c>
-      <c r="F19" t="s">
-        <v>578</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
         <v>86</v>
       </c>
-      <c r="B20" t="s">
-        <v>458</v>
-      </c>
-      <c r="C20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>521</v>
+      </c>
+      <c r="G20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>579</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
         <v>91</v>
       </c>
-      <c r="B21" t="s">
-        <v>460</v>
-      </c>
-      <c r="C21" t="s">
-        <v>488</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>522</v>
+      </c>
+      <c r="G21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>580</v>
-      </c>
-      <c r="G21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" t="s">
-        <v>489</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>523</v>
+      </c>
+      <c r="G22" t="s">
         <v>97</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>581</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" t="s">
+        <v>441</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
         <v>101</v>
       </c>
-      <c r="B23" t="s">
-        <v>458</v>
-      </c>
-      <c r="C23" t="s">
-        <v>490</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" t="s">
         <v>102</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>582</v>
-      </c>
-      <c r="G23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" t="s">
         <v>106</v>
       </c>
-      <c r="B24" t="s">
-        <v>458</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>525</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" t="s">
-        <v>583</v>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C25" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" t="s">
-        <v>459</v>
-      </c>
-      <c r="C25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
+        <v>526</v>
+      </c>
+      <c r="G25" t="s">
         <v>112</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>113</v>
-      </c>
-      <c r="F25" t="s">
-        <v>584</v>
-      </c>
-      <c r="G25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" t="s">
         <v>116</v>
       </c>
-      <c r="B26" t="s">
-        <v>458</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>527</v>
+      </c>
+      <c r="G26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" t="s">
         <v>118</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" t="s">
-        <v>585</v>
-      </c>
-      <c r="G26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
-        <v>458</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>528</v>
+      </c>
+      <c r="G27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H27" t="s">
         <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" t="s">
-        <v>586</v>
-      </c>
-      <c r="G27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" t="s">
+        <v>443</v>
+      </c>
+      <c r="D28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
         <v>126</v>
       </c>
-      <c r="B28" t="s">
-        <v>458</v>
-      </c>
-      <c r="C28" t="s">
-        <v>492</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>529</v>
+      </c>
+      <c r="G28" t="s">
         <v>127</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>128</v>
-      </c>
-      <c r="F28" t="s">
-        <v>587</v>
-      </c>
-      <c r="G28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
         <v>131</v>
       </c>
-      <c r="B29" t="s">
-        <v>458</v>
-      </c>
-      <c r="C29" t="s">
-        <v>493</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
+        <v>530</v>
+      </c>
+      <c r="G29" t="s">
         <v>132</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>133</v>
-      </c>
-      <c r="F29" t="s">
-        <v>588</v>
-      </c>
-      <c r="G29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
         <v>136</v>
       </c>
-      <c r="B30" t="s">
-        <v>458</v>
-      </c>
-      <c r="C30" t="s">
-        <v>494</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
+        <v>531</v>
+      </c>
+      <c r="G30" t="s">
         <v>137</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>138</v>
-      </c>
-      <c r="F30" t="s">
-        <v>589</v>
-      </c>
-      <c r="G30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
         <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>458</v>
-      </c>
-      <c r="C31" t="s">
-        <v>495</v>
-      </c>
-      <c r="D31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" t="s">
-        <v>143</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" t="s">
+        <v>447</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" t="s">
         <v>144</v>
       </c>
-      <c r="B32" t="s">
-        <v>458</v>
-      </c>
-      <c r="C32" t="s">
-        <v>496</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>532</v>
+      </c>
+      <c r="G32" t="s">
         <v>145</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>146</v>
-      </c>
-      <c r="F32" t="s">
-        <v>590</v>
-      </c>
-      <c r="G32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" t="s">
+        <v>448</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
         <v>149</v>
-      </c>
-      <c r="B33" t="s">
-        <v>458</v>
-      </c>
-      <c r="C33" t="s">
-        <v>497</v>
-      </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" t="s">
-        <v>151</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C34" t="s">
+        <v>449</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
         <v>152</v>
-      </c>
-      <c r="B34" t="s">
-        <v>458</v>
-      </c>
-      <c r="C34" t="s">
-        <v>498</v>
-      </c>
-      <c r="D34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" t="s">
-        <v>154</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" t="s">
+        <v>450</v>
+      </c>
+      <c r="D35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" t="s">
         <v>155</v>
-      </c>
-      <c r="B35" t="s">
-        <v>458</v>
-      </c>
-      <c r="C35" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" t="s">
-        <v>156</v>
-      </c>
-      <c r="E35" t="s">
-        <v>157</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C36" t="s">
+        <v>451</v>
+      </c>
+      <c r="D36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" t="s">
         <v>158</v>
-      </c>
-      <c r="B36" t="s">
-        <v>458</v>
-      </c>
-      <c r="C36" t="s">
-        <v>500</v>
-      </c>
-      <c r="D36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" t="s">
-        <v>160</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" t="s">
         <v>161</v>
       </c>
-      <c r="B37" t="s">
-        <v>458</v>
-      </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G37"/>
       <c r="H37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" t="s">
+        <v>413</v>
+      </c>
+      <c r="C38" t="s">
+        <v>452</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
         <v>164</v>
-      </c>
-      <c r="B38" t="s">
-        <v>458</v>
-      </c>
-      <c r="C38" t="s">
-        <v>501</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" t="s">
-        <v>166</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" t="s">
+        <v>453</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" t="s">
-        <v>458</v>
-      </c>
-      <c r="C39" t="s">
-        <v>502</v>
-      </c>
-      <c r="D39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40" t="s">
+        <v>454</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
         <v>170</v>
-      </c>
-      <c r="B40" t="s">
-        <v>458</v>
-      </c>
-      <c r="C40" t="s">
-        <v>503</v>
-      </c>
-      <c r="D40" t="s">
-        <v>171</v>
-      </c>
-      <c r="E40" t="s">
-        <v>172</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" t="s">
+        <v>455</v>
+      </c>
+      <c r="D41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" t="s">
         <v>173</v>
-      </c>
-      <c r="B41" t="s">
-        <v>458</v>
-      </c>
-      <c r="C41" t="s">
-        <v>504</v>
-      </c>
-      <c r="D41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" t="s">
-        <v>175</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" t="s">
         <v>176</v>
       </c>
-      <c r="B42" t="s">
-        <v>458</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" t="s">
+        <v>533</v>
+      </c>
+      <c r="G42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" t="s">
         <v>178</v>
-      </c>
-      <c r="D42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" t="s">
-        <v>591</v>
-      </c>
-      <c r="G42" t="s">
-        <v>179</v>
-      </c>
-      <c r="H42" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" t="s">
         <v>181</v>
       </c>
-      <c r="B43" t="s">
-        <v>458</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" t="s">
+        <v>534</v>
+      </c>
+      <c r="G43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" t="s">
         <v>183</v>
-      </c>
-      <c r="D43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" t="s">
-        <v>183</v>
-      </c>
-      <c r="F43" t="s">
-        <v>592</v>
-      </c>
-      <c r="G43" t="s">
-        <v>184</v>
-      </c>
-      <c r="H43" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>414</v>
+      </c>
+      <c r="C44" t="s">
+        <v>456</v>
+      </c>
+      <c r="D44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
         <v>186</v>
-      </c>
-      <c r="B44" t="s">
-        <v>459</v>
-      </c>
-      <c r="C44" t="s">
-        <v>505</v>
-      </c>
-      <c r="D44" t="s">
-        <v>187</v>
-      </c>
-      <c r="E44" t="s">
-        <v>188</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" t="s">
+        <v>457</v>
+      </c>
+      <c r="D45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" t="s">
         <v>189</v>
       </c>
-      <c r="B45" t="s">
-        <v>458</v>
-      </c>
-      <c r="C45" t="s">
-        <v>506</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
+        <v>535</v>
+      </c>
+      <c r="G45" t="s">
         <v>190</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>191</v>
-      </c>
-      <c r="F45" t="s">
-        <v>593</v>
-      </c>
-      <c r="G45" t="s">
-        <v>192</v>
-      </c>
-      <c r="H45" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
         <v>194</v>
       </c>
-      <c r="B46" t="s">
-        <v>458</v>
-      </c>
-      <c r="C46" t="s">
-        <v>507</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
+        <v>536</v>
+      </c>
+      <c r="G46" t="s">
         <v>195</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>196</v>
-      </c>
-      <c r="F46" t="s">
-        <v>594</v>
-      </c>
-      <c r="G46" t="s">
-        <v>197</v>
-      </c>
-      <c r="H46" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>414</v>
+      </c>
+      <c r="C47" t="s">
+        <v>459</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" t="s">
         <v>199</v>
-      </c>
-      <c r="B47" t="s">
-        <v>459</v>
-      </c>
-      <c r="C47" t="s">
-        <v>508</v>
-      </c>
-      <c r="D47" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" t="s">
-        <v>201</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" t="s">
         <v>202</v>
       </c>
-      <c r="B48" t="s">
-        <v>458</v>
-      </c>
-      <c r="C48" t="s">
-        <v>204</v>
-      </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" t="s">
+        <v>413</v>
+      </c>
+      <c r="C49" t="s">
+        <v>460</v>
+      </c>
+      <c r="D49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" t="s">
         <v>205</v>
-      </c>
-      <c r="B49" t="s">
-        <v>458</v>
-      </c>
-      <c r="C49" t="s">
-        <v>509</v>
-      </c>
-      <c r="D49" t="s">
-        <v>206</v>
-      </c>
-      <c r="E49" t="s">
-        <v>207</v>
       </c>
       <c r="G49"/>
       <c r="H49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>413</v>
+      </c>
+      <c r="C50" t="s">
+        <v>461</v>
+      </c>
+      <c r="D50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" t="s">
         <v>208</v>
-      </c>
-      <c r="B50" t="s">
-        <v>458</v>
-      </c>
-      <c r="C50" t="s">
-        <v>510</v>
-      </c>
-      <c r="D50" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" t="s">
-        <v>210</v>
       </c>
       <c r="G50"/>
       <c r="H50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>413</v>
+      </c>
+      <c r="C51" t="s">
         <v>211</v>
       </c>
-      <c r="B51" t="s">
-        <v>458</v>
-      </c>
-      <c r="C51" t="s">
-        <v>213</v>
-      </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G51"/>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>413</v>
+      </c>
+      <c r="C52" t="s">
+        <v>462</v>
+      </c>
+      <c r="D52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" t="s">
         <v>214</v>
-      </c>
-      <c r="B52" t="s">
-        <v>458</v>
-      </c>
-      <c r="C52" t="s">
-        <v>511</v>
-      </c>
-      <c r="D52" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" t="s">
-        <v>216</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" t="s">
+        <v>414</v>
+      </c>
+      <c r="C53" t="s">
         <v>217</v>
       </c>
-      <c r="B53" t="s">
-        <v>459</v>
-      </c>
-      <c r="C53" t="s">
-        <v>219</v>
-      </c>
       <c r="D53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" t="s">
+        <v>413</v>
+      </c>
+      <c r="C54" t="s">
+        <v>463</v>
+      </c>
+      <c r="D54" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" t="s">
         <v>220</v>
-      </c>
-      <c r="B54" t="s">
-        <v>458</v>
-      </c>
-      <c r="C54" t="s">
-        <v>512</v>
-      </c>
-      <c r="D54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" t="s">
-        <v>222</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" t="s">
+        <v>413</v>
+      </c>
+      <c r="C55" t="s">
+        <v>464</v>
+      </c>
+      <c r="D55" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" t="s">
         <v>223</v>
-      </c>
-      <c r="B55" t="s">
-        <v>458</v>
-      </c>
-      <c r="C55" t="s">
-        <v>513</v>
-      </c>
-      <c r="D55" t="s">
-        <v>224</v>
-      </c>
-      <c r="E55" t="s">
-        <v>225</v>
       </c>
       <c r="G55"/>
       <c r="H55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" t="s">
+        <v>413</v>
+      </c>
+      <c r="C56" t="s">
+        <v>465</v>
+      </c>
+      <c r="D56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" t="s">
         <v>226</v>
-      </c>
-      <c r="B56" t="s">
-        <v>458</v>
-      </c>
-      <c r="C56" t="s">
-        <v>514</v>
-      </c>
-      <c r="D56" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" t="s">
-        <v>228</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" t="s">
+        <v>413</v>
+      </c>
+      <c r="C57" t="s">
+        <v>466</v>
+      </c>
+      <c r="D57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" t="s">
         <v>229</v>
-      </c>
-      <c r="B57" t="s">
-        <v>458</v>
-      </c>
-      <c r="C57" t="s">
-        <v>515</v>
-      </c>
-      <c r="D57" t="s">
-        <v>230</v>
-      </c>
-      <c r="E57" t="s">
-        <v>231</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" t="s">
+        <v>414</v>
+      </c>
+      <c r="C58" t="s">
+        <v>467</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" t="s">
         <v>232</v>
       </c>
-      <c r="B58" t="s">
-        <v>459</v>
-      </c>
-      <c r="C58" t="s">
-        <v>516</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
+        <v>537</v>
+      </c>
+      <c r="G58" t="s">
         <v>233</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>234</v>
-      </c>
-      <c r="F58" t="s">
-        <v>595</v>
-      </c>
-      <c r="G58" t="s">
-        <v>235</v>
-      </c>
-      <c r="H58" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C59" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" t="s">
         <v>237</v>
-      </c>
-      <c r="B59" t="s">
-        <v>458</v>
-      </c>
-      <c r="C59" t="s">
-        <v>517</v>
-      </c>
-      <c r="D59" t="s">
-        <v>238</v>
-      </c>
-      <c r="E59" t="s">
-        <v>239</v>
       </c>
       <c r="G59"/>
       <c r="H59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>413</v>
+      </c>
+      <c r="C60" t="s">
         <v>240</v>
       </c>
-      <c r="B60" t="s">
-        <v>458</v>
-      </c>
-      <c r="C60" t="s">
-        <v>242</v>
-      </c>
       <c r="D60" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>241</v>
+      </c>
+      <c r="B61" t="s">
+        <v>413</v>
+      </c>
+      <c r="C61" t="s">
+        <v>469</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" t="s">
         <v>243</v>
-      </c>
-      <c r="B61" t="s">
-        <v>458</v>
-      </c>
-      <c r="C61" t="s">
-        <v>518</v>
-      </c>
-      <c r="D61" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" t="s">
-        <v>245</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>414</v>
+      </c>
+      <c r="C62" t="s">
+        <v>470</v>
+      </c>
+      <c r="D62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" t="s">
         <v>246</v>
-      </c>
-      <c r="B62" t="s">
-        <v>459</v>
-      </c>
-      <c r="C62" t="s">
-        <v>519</v>
-      </c>
-      <c r="D62" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" t="s">
-        <v>248</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" t="s">
+        <v>414</v>
+      </c>
+      <c r="C63" t="s">
+        <v>471</v>
+      </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" t="s">
         <v>249</v>
-      </c>
-      <c r="B63" t="s">
-        <v>459</v>
-      </c>
-      <c r="C63" t="s">
-        <v>520</v>
-      </c>
-      <c r="D63" t="s">
-        <v>250</v>
-      </c>
-      <c r="E63" t="s">
-        <v>251</v>
       </c>
       <c r="G63"/>
       <c r="H63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" t="s">
+        <v>413</v>
+      </c>
+      <c r="C64" t="s">
+        <v>472</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" t="s">
         <v>252</v>
-      </c>
-      <c r="B64" t="s">
-        <v>458</v>
-      </c>
-      <c r="C64" t="s">
-        <v>521</v>
-      </c>
-      <c r="D64" t="s">
-        <v>253</v>
-      </c>
-      <c r="E64" t="s">
-        <v>254</v>
       </c>
       <c r="G64"/>
       <c r="H64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" t="s">
+        <v>413</v>
+      </c>
+      <c r="C65" t="s">
+        <v>473</v>
+      </c>
+      <c r="D65" t="s">
+        <v>254</v>
+      </c>
+      <c r="E65" t="s">
         <v>255</v>
       </c>
-      <c r="B65" t="s">
-        <v>458</v>
-      </c>
-      <c r="C65" t="s">
-        <v>522</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
+        <v>538</v>
+      </c>
+      <c r="G65" t="s">
         <v>256</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>257</v>
-      </c>
-      <c r="F65" t="s">
-        <v>596</v>
-      </c>
-      <c r="G65" t="s">
-        <v>258</v>
-      </c>
-      <c r="H65" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>258</v>
+      </c>
+      <c r="B66" t="s">
+        <v>414</v>
+      </c>
+      <c r="C66" t="s">
+        <v>474</v>
+      </c>
+      <c r="D66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" t="s">
         <v>260</v>
-      </c>
-      <c r="B66" t="s">
-        <v>459</v>
-      </c>
-      <c r="C66" t="s">
-        <v>523</v>
-      </c>
-      <c r="D66" t="s">
-        <v>261</v>
-      </c>
-      <c r="E66" t="s">
-        <v>262</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s">
+        <v>413</v>
+      </c>
+      <c r="C67" t="s">
+        <v>475</v>
+      </c>
+      <c r="D67" t="s">
+        <v>262</v>
+      </c>
+      <c r="E67" t="s">
         <v>263</v>
-      </c>
-      <c r="B67" t="s">
-        <v>458</v>
-      </c>
-      <c r="C67" t="s">
-        <v>524</v>
-      </c>
-      <c r="D67" t="s">
-        <v>264</v>
-      </c>
-      <c r="E67" t="s">
-        <v>265</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" t="s">
+        <v>413</v>
+      </c>
+      <c r="C68" t="s">
+        <v>476</v>
+      </c>
+      <c r="D68" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" t="s">
         <v>266</v>
-      </c>
-      <c r="B68" t="s">
-        <v>458</v>
-      </c>
-      <c r="C68" t="s">
-        <v>525</v>
-      </c>
-      <c r="D68" t="s">
-        <v>267</v>
-      </c>
-      <c r="E68" t="s">
-        <v>268</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>267</v>
+      </c>
+      <c r="B69" t="s">
+        <v>413</v>
+      </c>
+      <c r="C69" t="s">
         <v>269</v>
       </c>
-      <c r="B69" t="s">
-        <v>458</v>
-      </c>
-      <c r="C69" t="s">
-        <v>271</v>
-      </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E69" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" t="s">
+        <v>413</v>
+      </c>
+      <c r="C70" t="s">
         <v>272</v>
       </c>
-      <c r="B70" t="s">
-        <v>458</v>
-      </c>
-      <c r="C70" t="s">
-        <v>274</v>
-      </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" t="s">
+        <v>413</v>
+      </c>
+      <c r="C71" t="s">
+        <v>477</v>
+      </c>
+      <c r="D71" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" t="s">
         <v>275</v>
       </c>
-      <c r="B71" t="s">
-        <v>458</v>
-      </c>
-      <c r="C71" t="s">
-        <v>526</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
+        <v>539</v>
+      </c>
+      <c r="G71" t="s">
         <v>276</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>277</v>
-      </c>
-      <c r="F71" t="s">
-        <v>597</v>
-      </c>
-      <c r="G71" t="s">
-        <v>278</v>
-      </c>
-      <c r="H71" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>278</v>
+      </c>
+      <c r="B72" t="s">
+        <v>413</v>
+      </c>
+      <c r="C72" t="s">
+        <v>478</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" t="s">
         <v>280</v>
       </c>
-      <c r="B72" t="s">
-        <v>458</v>
-      </c>
-      <c r="C72" t="s">
-        <v>527</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
+        <v>540</v>
+      </c>
+      <c r="G72" t="s">
         <v>281</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>282</v>
-      </c>
-      <c r="F72" t="s">
-        <v>598</v>
-      </c>
-      <c r="G72" t="s">
-        <v>283</v>
-      </c>
-      <c r="H72" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>283</v>
+      </c>
+      <c r="B73" t="s">
+        <v>414</v>
+      </c>
+      <c r="C73" t="s">
+        <v>479</v>
+      </c>
+      <c r="D73" t="s">
+        <v>284</v>
+      </c>
+      <c r="E73" t="s">
         <v>285</v>
       </c>
-      <c r="B73" t="s">
-        <v>459</v>
-      </c>
-      <c r="C73" t="s">
-        <v>528</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
+        <v>541</v>
+      </c>
+      <c r="G73" t="s">
         <v>286</v>
       </c>
-      <c r="E73" t="s">
+      <c r="H73" t="s">
         <v>287</v>
-      </c>
-      <c r="F73" t="s">
-        <v>599</v>
-      </c>
-      <c r="G73" t="s">
-        <v>288</v>
-      </c>
-      <c r="H73" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" t="s">
+        <v>413</v>
+      </c>
+      <c r="C74" t="s">
+        <v>480</v>
+      </c>
+      <c r="D74" t="s">
+        <v>289</v>
+      </c>
+      <c r="E74" t="s">
         <v>290</v>
       </c>
-      <c r="B74" t="s">
-        <v>458</v>
-      </c>
-      <c r="C74" t="s">
-        <v>529</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="F74" t="s">
+        <v>542</v>
+      </c>
+      <c r="G74" t="s">
         <v>291</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H74" t="s">
         <v>292</v>
-      </c>
-      <c r="F74" t="s">
-        <v>600</v>
-      </c>
-      <c r="G74" t="s">
-        <v>293</v>
-      </c>
-      <c r="H74" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" t="s">
+        <v>413</v>
+      </c>
+      <c r="C75" t="s">
+        <v>481</v>
+      </c>
+      <c r="D75" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" t="s">
         <v>295</v>
       </c>
-      <c r="B75" t="s">
-        <v>458</v>
-      </c>
-      <c r="C75" t="s">
-        <v>530</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
+        <v>543</v>
+      </c>
+      <c r="G75" t="s">
         <v>296</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>297</v>
-      </c>
-      <c r="F75" t="s">
-        <v>601</v>
-      </c>
-      <c r="G75" t="s">
-        <v>298</v>
-      </c>
-      <c r="H75" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" t="s">
+        <v>414</v>
+      </c>
+      <c r="C76" t="s">
+        <v>482</v>
+      </c>
+      <c r="D76" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" t="s">
         <v>300</v>
       </c>
-      <c r="B76" t="s">
-        <v>459</v>
-      </c>
-      <c r="C76" t="s">
-        <v>531</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="F76" t="s">
+        <v>544</v>
+      </c>
+      <c r="G76" t="s">
         <v>301</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>302</v>
-      </c>
-      <c r="F76" t="s">
-        <v>602</v>
-      </c>
-      <c r="G76" t="s">
-        <v>303</v>
-      </c>
-      <c r="H76" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" t="s">
+        <v>483</v>
+      </c>
+      <c r="D77" t="s">
+        <v>304</v>
+      </c>
+      <c r="E77" t="s">
         <v>305</v>
       </c>
-      <c r="B77" t="s">
-        <v>458</v>
-      </c>
-      <c r="C77" t="s">
-        <v>532</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
+        <v>545</v>
+      </c>
+      <c r="G77" t="s">
         <v>306</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>307</v>
-      </c>
-      <c r="F77" t="s">
-        <v>603</v>
-      </c>
-      <c r="G77" t="s">
-        <v>308</v>
-      </c>
-      <c r="H77" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" t="s">
+        <v>413</v>
+      </c>
+      <c r="C78" t="s">
+        <v>484</v>
+      </c>
+      <c r="D78" t="s">
+        <v>309</v>
+      </c>
+      <c r="E78" t="s">
         <v>310</v>
       </c>
-      <c r="B78" t="s">
-        <v>458</v>
-      </c>
-      <c r="C78" t="s">
-        <v>533</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="F78" t="s">
+        <v>546</v>
+      </c>
+      <c r="G78" t="s">
         <v>311</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>312</v>
-      </c>
-      <c r="F78" t="s">
-        <v>604</v>
-      </c>
-      <c r="G78" t="s">
-        <v>313</v>
-      </c>
-      <c r="H78" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" t="s">
+        <v>413</v>
+      </c>
+      <c r="C79" t="s">
+        <v>485</v>
+      </c>
+      <c r="D79" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79" t="s">
         <v>315</v>
       </c>
-      <c r="B79" t="s">
-        <v>458</v>
-      </c>
-      <c r="C79" t="s">
-        <v>534</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="F79" t="s">
+        <v>547</v>
+      </c>
+      <c r="G79" t="s">
         <v>316</v>
       </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
         <v>317</v>
-      </c>
-      <c r="F79" t="s">
-        <v>605</v>
-      </c>
-      <c r="G79" t="s">
-        <v>318</v>
-      </c>
-      <c r="H79" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" t="s">
+        <v>413</v>
+      </c>
+      <c r="C80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
+      </c>
+      <c r="E80" t="s">
         <v>320</v>
       </c>
-      <c r="B80" t="s">
-        <v>458</v>
-      </c>
-      <c r="C80" t="s">
-        <v>535</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="F80" t="s">
+        <v>548</v>
+      </c>
+      <c r="G80" t="s">
         <v>321</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>322</v>
-      </c>
-      <c r="F80" t="s">
-        <v>606</v>
-      </c>
-      <c r="G80" t="s">
-        <v>323</v>
-      </c>
-      <c r="H80" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" t="s">
+        <v>413</v>
+      </c>
+      <c r="C81" t="s">
+        <v>487</v>
+      </c>
+      <c r="D81" t="s">
+        <v>324</v>
+      </c>
+      <c r="E81" t="s">
         <v>325</v>
       </c>
-      <c r="B81" t="s">
-        <v>458</v>
-      </c>
-      <c r="C81" t="s">
-        <v>536</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
+        <v>549</v>
+      </c>
+      <c r="G81" t="s">
         <v>326</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>327</v>
-      </c>
-      <c r="F81" t="s">
-        <v>607</v>
-      </c>
-      <c r="G81" t="s">
-        <v>328</v>
-      </c>
-      <c r="H81" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>328</v>
+      </c>
+      <c r="B82" t="s">
+        <v>413</v>
+      </c>
+      <c r="C82" t="s">
+        <v>488</v>
+      </c>
+      <c r="D82" t="s">
+        <v>329</v>
+      </c>
+      <c r="E82" t="s">
         <v>330</v>
-      </c>
-      <c r="B82" t="s">
-        <v>458</v>
-      </c>
-      <c r="C82" t="s">
-        <v>537</v>
-      </c>
-      <c r="D82" t="s">
-        <v>331</v>
-      </c>
-      <c r="E82" t="s">
-        <v>332</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>331</v>
+      </c>
+      <c r="B83" t="s">
+        <v>414</v>
+      </c>
+      <c r="C83" t="s">
+        <v>489</v>
+      </c>
+      <c r="D83" t="s">
+        <v>332</v>
+      </c>
+      <c r="E83" t="s">
         <v>333</v>
       </c>
-      <c r="B83" t="s">
-        <v>459</v>
-      </c>
-      <c r="C83" t="s">
-        <v>538</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
+        <v>550</v>
+      </c>
+      <c r="G83" t="s">
         <v>334</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>335</v>
-      </c>
-      <c r="F83" t="s">
-        <v>608</v>
-      </c>
-      <c r="G83" t="s">
-        <v>336</v>
-      </c>
-      <c r="H83" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>336</v>
+      </c>
+      <c r="B84" t="s">
+        <v>414</v>
+      </c>
+      <c r="C84" t="s">
+        <v>490</v>
+      </c>
+      <c r="D84" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" t="s">
         <v>338</v>
       </c>
-      <c r="B84" t="s">
-        <v>459</v>
-      </c>
-      <c r="C84" t="s">
-        <v>539</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
+        <v>551</v>
+      </c>
+      <c r="G84" t="s">
         <v>339</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>340</v>
-      </c>
-      <c r="F84" t="s">
-        <v>609</v>
-      </c>
-      <c r="G84" t="s">
-        <v>341</v>
-      </c>
-      <c r="H84" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>341</v>
+      </c>
+      <c r="B85" t="s">
+        <v>413</v>
+      </c>
+      <c r="C85" t="s">
         <v>343</v>
       </c>
-      <c r="B85" t="s">
-        <v>458</v>
-      </c>
-      <c r="C85" t="s">
-        <v>345</v>
-      </c>
       <c r="D85" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E85" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" t="s">
+        <v>491</v>
+      </c>
+      <c r="D86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" t="s">
         <v>346</v>
-      </c>
-      <c r="B86" t="s">
-        <v>458</v>
-      </c>
-      <c r="C86" t="s">
-        <v>540</v>
-      </c>
-      <c r="D86" t="s">
-        <v>347</v>
-      </c>
-      <c r="E86" t="s">
-        <v>348</v>
       </c>
       <c r="G86"/>
       <c r="H86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" t="s">
+        <v>492</v>
+      </c>
+      <c r="D87" t="s">
+        <v>348</v>
+      </c>
+      <c r="E87" t="s">
         <v>349</v>
-      </c>
-      <c r="B87" t="s">
-        <v>459</v>
-      </c>
-      <c r="C87" t="s">
-        <v>541</v>
-      </c>
-      <c r="D87" t="s">
-        <v>350</v>
-      </c>
-      <c r="E87" t="s">
-        <v>351</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>350</v>
+      </c>
+      <c r="B88" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" t="s">
+        <v>493</v>
+      </c>
+      <c r="D88" t="s">
+        <v>351</v>
+      </c>
+      <c r="E88" t="s">
         <v>352</v>
-      </c>
-      <c r="B88" t="s">
-        <v>462</v>
-      </c>
-      <c r="C88" t="s">
-        <v>542</v>
-      </c>
-      <c r="D88" t="s">
-        <v>353</v>
-      </c>
-      <c r="E88" t="s">
-        <v>354</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>353</v>
+      </c>
+      <c r="B89" t="s">
+        <v>413</v>
+      </c>
+      <c r="C89" t="s">
+        <v>494</v>
+      </c>
+      <c r="D89" t="s">
+        <v>354</v>
+      </c>
+      <c r="E89" t="s">
         <v>355</v>
-      </c>
-      <c r="B89" t="s">
-        <v>458</v>
-      </c>
-      <c r="C89" t="s">
-        <v>543</v>
-      </c>
-      <c r="D89" t="s">
-        <v>356</v>
-      </c>
-      <c r="E89" t="s">
-        <v>357</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" t="s">
+        <v>413</v>
+      </c>
+      <c r="C90" t="s">
+        <v>495</v>
+      </c>
+      <c r="D90" t="s">
+        <v>357</v>
+      </c>
+      <c r="E90" t="s">
         <v>358</v>
-      </c>
-      <c r="B90" t="s">
-        <v>458</v>
-      </c>
-      <c r="C90" t="s">
-        <v>544</v>
-      </c>
-      <c r="D90" t="s">
-        <v>359</v>
-      </c>
-      <c r="E90" t="s">
-        <v>360</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" t="s">
+        <v>413</v>
+      </c>
+      <c r="C91" t="s">
         <v>361</v>
       </c>
-      <c r="B91" t="s">
-        <v>458</v>
-      </c>
-      <c r="C91" t="s">
-        <v>363</v>
-      </c>
       <c r="D91" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E91" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" t="s">
+        <v>417</v>
+      </c>
+      <c r="C92" t="s">
+        <v>496</v>
+      </c>
+      <c r="D92" t="s">
+        <v>363</v>
+      </c>
+      <c r="E92" t="s">
         <v>364</v>
-      </c>
-      <c r="B92" t="s">
-        <v>462</v>
-      </c>
-      <c r="C92" t="s">
-        <v>545</v>
-      </c>
-      <c r="D92" t="s">
-        <v>365</v>
-      </c>
-      <c r="E92" t="s">
-        <v>366</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" t="s">
+        <v>414</v>
+      </c>
+      <c r="C93" t="s">
+        <v>497</v>
+      </c>
+      <c r="D93" t="s">
+        <v>366</v>
+      </c>
+      <c r="E93" t="s">
         <v>367</v>
-      </c>
-      <c r="B93" t="s">
-        <v>459</v>
-      </c>
-      <c r="C93" t="s">
-        <v>546</v>
-      </c>
-      <c r="D93" t="s">
-        <v>368</v>
-      </c>
-      <c r="E93" t="s">
-        <v>369</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>368</v>
+      </c>
+      <c r="B94" t="s">
+        <v>414</v>
+      </c>
+      <c r="C94" t="s">
+        <v>498</v>
+      </c>
+      <c r="D94" t="s">
+        <v>369</v>
+      </c>
+      <c r="E94" t="s">
         <v>370</v>
       </c>
-      <c r="B94" t="s">
-        <v>459</v>
-      </c>
-      <c r="C94" t="s">
-        <v>547</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
+        <v>552</v>
+      </c>
+      <c r="G94" t="s">
         <v>371</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>372</v>
-      </c>
-      <c r="F94" t="s">
-        <v>610</v>
-      </c>
-      <c r="G94" t="s">
-        <v>373</v>
-      </c>
-      <c r="H94" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>373</v>
+      </c>
+      <c r="B95" t="s">
+        <v>414</v>
+      </c>
+      <c r="C95" t="s">
+        <v>499</v>
+      </c>
+      <c r="D95" t="s">
+        <v>374</v>
+      </c>
+      <c r="E95" t="s">
         <v>375</v>
-      </c>
-      <c r="B95" t="s">
-        <v>459</v>
-      </c>
-      <c r="C95" t="s">
-        <v>548</v>
-      </c>
-      <c r="D95" t="s">
-        <v>376</v>
-      </c>
-      <c r="E95" t="s">
-        <v>377</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>376</v>
+      </c>
+      <c r="B96" t="s">
+        <v>414</v>
+      </c>
+      <c r="C96" t="s">
+        <v>500</v>
+      </c>
+      <c r="D96" t="s">
+        <v>377</v>
+      </c>
+      <c r="E96" t="s">
         <v>378</v>
-      </c>
-      <c r="B96" t="s">
-        <v>459</v>
-      </c>
-      <c r="C96" t="s">
-        <v>549</v>
-      </c>
-      <c r="D96" t="s">
-        <v>379</v>
-      </c>
-      <c r="E96" t="s">
-        <v>380</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" t="s">
+        <v>414</v>
+      </c>
+      <c r="C97" t="s">
+        <v>501</v>
+      </c>
+      <c r="D97" t="s">
+        <v>380</v>
+      </c>
+      <c r="E97" t="s">
         <v>381</v>
-      </c>
-      <c r="B97" t="s">
-        <v>459</v>
-      </c>
-      <c r="C97" t="s">
-        <v>550</v>
-      </c>
-      <c r="D97" t="s">
-        <v>382</v>
-      </c>
-      <c r="E97" t="s">
-        <v>383</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>382</v>
+      </c>
+      <c r="B98" t="s">
+        <v>414</v>
+      </c>
+      <c r="C98" t="s">
         <v>384</v>
       </c>
-      <c r="B98" t="s">
-        <v>459</v>
-      </c>
-      <c r="C98" t="s">
-        <v>386</v>
-      </c>
       <c r="D98" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E98" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" t="s">
+        <v>414</v>
+      </c>
+      <c r="C99" t="s">
+        <v>502</v>
+      </c>
+      <c r="D99" t="s">
+        <v>386</v>
+      </c>
+      <c r="E99" t="s">
         <v>387</v>
-      </c>
-      <c r="B99" t="s">
-        <v>459</v>
-      </c>
-      <c r="C99" t="s">
-        <v>551</v>
-      </c>
-      <c r="D99" t="s">
-        <v>388</v>
-      </c>
-      <c r="E99" t="s">
-        <v>389</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>388</v>
+      </c>
+      <c r="B100" t="s">
+        <v>418</v>
+      </c>
+      <c r="C100" t="s">
+        <v>503</v>
+      </c>
+      <c r="D100" t="s">
+        <v>389</v>
+      </c>
+      <c r="E100" t="s">
         <v>390</v>
-      </c>
-      <c r="B100" t="s">
-        <v>463</v>
-      </c>
-      <c r="C100" t="s">
-        <v>552</v>
-      </c>
-      <c r="D100" t="s">
-        <v>391</v>
-      </c>
-      <c r="E100" t="s">
-        <v>392</v>
       </c>
       <c r="G100"/>
       <c r="H100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>391</v>
+      </c>
+      <c r="B101" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" t="s">
         <v>393</v>
       </c>
-      <c r="B101" t="s">
-        <v>464</v>
-      </c>
-      <c r="C101" t="s">
-        <v>395</v>
-      </c>
       <c r="D101" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E101" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>394</v>
+      </c>
+      <c r="B102" t="s">
+        <v>420</v>
+      </c>
+      <c r="C102" t="s">
+        <v>504</v>
+      </c>
+      <c r="D102" t="s">
+        <v>395</v>
+      </c>
+      <c r="E102" t="s">
         <v>396</v>
       </c>
-      <c r="B102" t="s">
-        <v>465</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="F102" t="s">
         <v>553</v>
       </c>
-      <c r="D102" t="s">
+      <c r="G102" t="s">
         <v>397</v>
       </c>
-      <c r="E102" t="s">
+      <c r="H102" t="s">
         <v>398</v>
-      </c>
-      <c r="F102" t="s">
-        <v>611</v>
-      </c>
-      <c r="G102" t="s">
-        <v>399</v>
-      </c>
-      <c r="H102" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>399</v>
+      </c>
+      <c r="B103" t="s">
+        <v>421</v>
+      </c>
+      <c r="C103" t="s">
+        <v>505</v>
+      </c>
+      <c r="D103" t="s">
+        <v>400</v>
+      </c>
+      <c r="E103" t="s">
         <v>401</v>
-      </c>
-      <c r="B103" t="s">
-        <v>466</v>
-      </c>
-      <c r="C103" t="s">
-        <v>554</v>
-      </c>
-      <c r="D103" t="s">
-        <v>402</v>
-      </c>
-      <c r="E103" t="s">
-        <v>403</v>
       </c>
       <c r="G103"/>
       <c r="H103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>402</v>
+      </c>
+      <c r="B104" t="s">
+        <v>421</v>
+      </c>
+      <c r="C104" t="s">
+        <v>506</v>
+      </c>
+      <c r="D104" t="s">
+        <v>403</v>
+      </c>
+      <c r="E104" t="s">
         <v>404</v>
-      </c>
-      <c r="B104" t="s">
-        <v>466</v>
-      </c>
-      <c r="C104" t="s">
-        <v>555</v>
-      </c>
-      <c r="D104" t="s">
-        <v>405</v>
-      </c>
-      <c r="E104" t="s">
-        <v>406</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>405</v>
+      </c>
+      <c r="B105" t="s">
+        <v>422</v>
+      </c>
+      <c r="C105" t="s">
+        <v>507</v>
+      </c>
+      <c r="D105" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" t="s">
         <v>407</v>
       </c>
-      <c r="B105" t="s">
-        <v>467</v>
-      </c>
-      <c r="C105" t="s">
-        <v>556</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
+        <v>554</v>
+      </c>
+      <c r="G105" t="s">
         <v>408</v>
       </c>
-      <c r="E105" t="s">
+      <c r="H105" t="s">
         <v>409</v>
-      </c>
-      <c r="F105" t="s">
-        <v>612</v>
-      </c>
-      <c r="G105" t="s">
-        <v>410</v>
-      </c>
-      <c r="H105" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>410</v>
+      </c>
+      <c r="B106" t="s">
+        <v>423</v>
+      </c>
+      <c r="C106" t="s">
+        <v>508</v>
+      </c>
+      <c r="D106" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106" t="s">
         <v>412</v>
-      </c>
-      <c r="B106" t="s">
-        <v>468</v>
-      </c>
-      <c r="C106" t="s">
-        <v>557</v>
-      </c>
-      <c r="D106" t="s">
-        <v>413</v>
-      </c>
-      <c r="E106" t="s">
-        <v>414</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>415</v>
-      </c>
-      <c r="B107" t="s">
-        <v>469</v>
-      </c>
-      <c r="C107" t="s">
-        <v>417</v>
-      </c>
-      <c r="D107" t="s">
-        <v>416</v>
-      </c>
-      <c r="E107" t="s">
-        <v>417</v>
-      </c>
-      <c r="G107"/>
-      <c r="H107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>418</v>
-      </c>
-      <c r="B108" t="s">
-        <v>470</v>
-      </c>
-      <c r="C108" t="s">
-        <v>558</v>
-      </c>
-      <c r="D108" t="s">
-        <v>419</v>
-      </c>
-      <c r="E108" t="s">
-        <v>420</v>
-      </c>
-      <c r="G108"/>
-      <c r="H108"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>421</v>
-      </c>
-      <c r="B109" t="s">
-        <v>471</v>
-      </c>
-      <c r="C109" t="s">
-        <v>423</v>
-      </c>
-      <c r="D109" t="s">
-        <v>422</v>
-      </c>
-      <c r="E109" t="s">
-        <v>423</v>
-      </c>
-      <c r="G109"/>
-      <c r="H109"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>424</v>
-      </c>
-      <c r="B110" t="s">
-        <v>472</v>
-      </c>
-      <c r="C110" t="s">
-        <v>559</v>
-      </c>
-      <c r="D110" t="s">
-        <v>425</v>
-      </c>
-      <c r="E110" t="s">
-        <v>426</v>
-      </c>
-      <c r="F110" t="s">
-        <v>613</v>
-      </c>
-      <c r="G110" t="s">
-        <v>427</v>
-      </c>
-      <c r="H110" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>429</v>
-      </c>
-      <c r="B111" t="s">
-        <v>472</v>
-      </c>
-      <c r="C111" t="s">
-        <v>560</v>
-      </c>
-      <c r="D111" t="s">
-        <v>430</v>
-      </c>
-      <c r="E111" t="s">
-        <v>431</v>
-      </c>
-      <c r="F111" t="s">
-        <v>614</v>
-      </c>
-      <c r="G111" t="s">
-        <v>432</v>
-      </c>
-      <c r="H111" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>434</v>
-      </c>
-      <c r="B112" t="s">
-        <v>472</v>
-      </c>
-      <c r="C112" t="s">
-        <v>561</v>
-      </c>
-      <c r="D112" t="s">
-        <v>435</v>
-      </c>
-      <c r="E112" t="s">
-        <v>436</v>
-      </c>
-      <c r="F112" t="s">
-        <v>615</v>
-      </c>
-      <c r="G112" t="s">
-        <v>437</v>
-      </c>
-      <c r="H112" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>439</v>
-      </c>
-      <c r="B113" t="s">
-        <v>472</v>
-      </c>
-      <c r="C113" t="s">
-        <v>562</v>
-      </c>
-      <c r="D113" t="s">
-        <v>440</v>
-      </c>
-      <c r="E113" t="s">
-        <v>441</v>
-      </c>
-      <c r="F113" t="s">
-        <v>616</v>
-      </c>
-      <c r="G113" t="s">
-        <v>442</v>
-      </c>
-      <c r="H113" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>444</v>
-      </c>
-      <c r="B114" t="s">
-        <v>472</v>
-      </c>
-      <c r="C114" t="s">
-        <v>563</v>
-      </c>
-      <c r="D114" t="s">
-        <v>445</v>
-      </c>
-      <c r="E114" t="s">
-        <v>446</v>
-      </c>
-      <c r="F114" t="s">
-        <v>617</v>
-      </c>
-      <c r="G114" t="s">
-        <v>447</v>
-      </c>
-      <c r="H114" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>449</v>
-      </c>
-      <c r="B115" t="s">
-        <v>472</v>
-      </c>
-      <c r="C115" t="s">
-        <v>564</v>
-      </c>
-      <c r="D115" t="s">
-        <v>450</v>
-      </c>
-      <c r="E115" t="s">
-        <v>451</v>
-      </c>
-      <c r="F115" t="s">
-        <v>618</v>
-      </c>
-      <c r="G115" t="s">
-        <v>452</v>
-      </c>
-      <c r="H115" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>454</v>
-      </c>
-      <c r="B116" t="s">
-        <v>472</v>
-      </c>
-      <c r="C116" t="s">
-        <v>565</v>
-      </c>
-      <c r="D116" t="s">
-        <v>455</v>
-      </c>
-      <c r="E116" t="s">
-        <v>456</v>
-      </c>
-      <c r="F116" t="s">
-        <v>592</v>
-      </c>
-      <c r="G116" t="s">
-        <v>283</v>
-      </c>
-      <c r="H116" t="s">
-        <v>457</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
